--- a/documents/测试标准/测试标准-后台.xlsx
+++ b/documents/测试标准/测试标准-后台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>标号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,19 +29,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位（详细的后台流程）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击搜索栏页面跳转到搜索界面（具体细节）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门商品信息</t>
+    <t>点击点位后，调用后台接口自动定位到当前位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索栏页面跳转到搜索界面，读取输入信息并一一与数据库中信息进行比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门商品图片显示接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口列表信息完整，从数据库信息中准确读出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口图片显示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击tab调用接口函数跳转页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -391,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -399,7 +411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -422,30 +434,24 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
